--- a/Documentación/Requerimientos CATIE.xlsx
+++ b/Documentación/Requerimientos CATIE.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis8\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis8\OneDrive\Escritorio\Documentos_SIBCATIE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,94 @@
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
+  <dxfs count="30">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -819,583 +906,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF800000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <right style="thin">
           <color auto="1"/>
@@ -1501,20 +1011,20 @@
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Estilo de tabla 1" pivot="0" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="59"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
     </tableStyle>
     <tableStyle name="Estilo de tabla 2" pivot="0" count="1">
-      <tableStyleElement type="firstColumn" dxfId="58"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
     </tableStyle>
     <tableStyle name="Propio" pivot="0" count="8">
-      <tableStyleElement type="wholeTable" dxfId="57"/>
-      <tableStyleElement type="headerRow" dxfId="56"/>
-      <tableStyleElement type="totalRow" dxfId="55"/>
-      <tableStyleElement type="firstColumn" dxfId="54"/>
-      <tableStyleElement type="lastColumn" dxfId="53"/>
-      <tableStyleElement type="firstRowStripe" dxfId="52"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="51"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="50"/>
+      <tableStyleElement type="wholeTable" dxfId="27"/>
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="totalRow" dxfId="25"/>
+      <tableStyleElement type="firstColumn" dxfId="24"/>
+      <tableStyleElement type="lastColumn" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1536,17 +1046,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A4:H36" insertRowShift="1" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A4:H36" insertRowShift="1" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A4:H36"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Código" totalsRowLabel="Total" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="45" totalsRowDxfId="44"/>
-    <tableColumn id="3" name="Versión" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="4" name="Dependencias" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="39"/>
-    <tableColumn id="7" name="Prioridad" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="8" name="Estado" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="9" name="Comentarios" totalsRowFunction="count" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="1" name="Código" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="2" name="Nombre" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="3" name="Versión" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="4" name="Dependencias" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="5" name="Descripción" dataDxfId="6"/>
+    <tableColumn id="7" name="Prioridad" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Estado" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="9" name="Comentarios" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Propio" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1871,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +1820,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="H19" s="8" t="s">
         <v>62</v>
@@ -2758,7 +2268,7 @@
     <mergeCell ref="A2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="F5:F36">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Media">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",F5)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentación/Requerimientos CATIE.xlsx
+++ b/Documentación/Requerimientos CATIE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis8\OneDrive\Escritorio\Documentos_SIBCATIE\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FE5BC6-22C1-4BA8-A84F-B82487D8DEA3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimientos" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="167">
   <si>
     <t>Código</t>
   </si>
@@ -85,9 +86,6 @@
     <t>Modificar rol - admin</t>
   </si>
   <si>
-    <t>Crear usuario</t>
-  </si>
-  <si>
     <t>Eliminar usuario - admin</t>
   </si>
   <si>
@@ -98,12 +96,6 @@
   </si>
   <si>
     <t>Enviar email de cambios al admin</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al administrador asignar un rol a un nuevo usuario en el sistema.</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir al usuario iniciar sesión ingresando el nombre de usuario/email y contraseña en el sistema de logueo.</t>
   </si>
   <si>
     <t>El sistema debe permitirle al usuario cerrar sesión al usuario previamente logueado en el sistema.</t>
@@ -132,9 +124,6 @@
     <t>• El ayudante tendrá ciertos permisos sobre los productos de la zona a la cual fue asignado.</t>
   </si>
   <si>
-    <t>• El sistema le enviará un correo electrónico al administrador general el cual deberá aceptar y asignar un rol al nuevo usuario.</t>
-  </si>
-  <si>
     <t>El sistema enviará un correo electrónico al admin de una zona en el momento de que un ayudante de esa misma zona realice un cambio.</t>
   </si>
   <si>
@@ -196,15 +185,9 @@
     <t>El sistema debe permitir a cualquier usuario con permisos necesarios: Agregar, modificar o borrar un registros.</t>
   </si>
   <si>
-    <t>Agregar, modificar y eliminar registros</t>
-  </si>
-  <si>
     <t>Buscar por atributos en lista de registros</t>
   </si>
   <si>
-    <t>Carrito de registros</t>
-  </si>
-  <si>
     <t>Exportar carrito de registros</t>
   </si>
   <si>
@@ -221,9 +204,6 @@
   </si>
   <si>
     <t>• Existirán botones con el nombre de algunos atributos de modo que al presionarlos, se filtre automáticamente la lista.</t>
-  </si>
-  <si>
-    <t>• Usuario común registrado.</t>
   </si>
   <si>
     <t>• El rol común será también llamado visitante, el cual solo podrá ver la información de la web, además de agregar dicha información al carro.</t>
@@ -284,13 +264,6 @@
     <t>• Ser usuario.</t>
   </si>
   <si>
-    <t>El sistema debe seleccionar en un orden específico al menos 2 plantas por semana para mostrar como portada principal de la web.</t>
-  </si>
-  <si>
-    <t>• Se creará una lista de 52 registros con dos plantas cada uno, de modo que se despliegue un registro por semana.
-• Al finalizar el año, se repetirá el mismo registro.</t>
-  </si>
-  <si>
     <t>El sistema debe encriptar las contraseñas para mantener una mayor seguridad de la base de datos.</t>
   </si>
   <si>
@@ -298,9 +271,6 @@
   </si>
   <si>
     <t>Llamada a la acción.</t>
-  </si>
-  <si>
-    <t>Carrusel de flores principales.</t>
   </si>
   <si>
     <t>Seleccionar imagen principal</t>
@@ -327,13 +297,6 @@
     <t>• Esto con el fin de responder con mayor seguridad sobre el tipo de registro ayudándose con la localidad de la planta.</t>
   </si>
   <si>
-    <t>El sistema debe permitir filtrar la lista de los registros con facilidad, ya sea por zona, por especie, por familia, por referencia, etc.</t>
-  </si>
-  <si>
-    <t>• Por default la información estará desplegada por orden alfabético.
-• Lo esencial es tener botones que al presionarlos automáticamente se filtren los datos.</t>
-  </si>
-  <si>
     <t>• Es necesario ir filtrando información de acuerdo a la ultima característica ingresada en la búsqueda, por ejemplo: una lista de provincias de CR, al seleccionar cualquiera, me debería desplegar los cantones de la selección.</t>
   </si>
   <si>
@@ -347,9 +310,6 @@
 • Los datos de registros se borrarás del sistema.</t>
   </si>
   <si>
-    <t>• Dependiendo del rol, el usuario tendrá o no tendrá algunos permisos para administrar el sistema.</t>
-  </si>
-  <si>
     <t>Consultar historial de actividad</t>
   </si>
   <si>
@@ -413,16 +373,195 @@
   </si>
   <si>
     <t>• Le solicitará al usuario el correo electrónico para recuperar la contraseña.</t>
+  </si>
+  <si>
+    <t>Carrito de exportación</t>
+  </si>
+  <si>
+    <t>Lista de favoritos</t>
+  </si>
+  <si>
+    <t>El sistema debe permitirle tanto al usuario común como a los admin y ayudantes a crear una lista de registros favoritos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir filtrar la lista de los registros con facilidad utilizando los atributos taxonómicos.</t>
+  </si>
+  <si>
+    <t>• En el área del mantenimiento de taxonomías, cada tabla de datos tendrá un botón que filtrará por ella misma todo el registro de especies.</t>
+  </si>
+  <si>
+    <t>Sección de flores principales semanales.</t>
+  </si>
+  <si>
+    <t>El sistema debe seleccionar en un orden específico al menos 2 plantas por semana para mostrar en la pagina principal al público.</t>
+  </si>
+  <si>
+    <t>• De forma semanal, se seleccionarán al menos 2 plantas de forma aleatoria que se mostrarán en la portada.
+• Se mostrarán algunos atributos junto con la imagen principal de forma que los lleve a los datos completos al precionar la imagen.</t>
+  </si>
+  <si>
+    <t>Datos contables de registros.</t>
+  </si>
+  <si>
+    <t>El sistema debe generar ciertos datos sobre el sistema en la seccion administrativa.</t>
+  </si>
+  <si>
+    <t>Agenda de usuarios.</t>
+  </si>
+  <si>
+    <t>Mostrar usuarios registrados por rol.</t>
+  </si>
+  <si>
+    <t>Menú dinámico.</t>
+  </si>
+  <si>
+    <t>Control de permisos de roles.</t>
+  </si>
+  <si>
+    <t>Acceso denegado.</t>
+  </si>
+  <si>
+    <t>Selección múltiple.</t>
+  </si>
+  <si>
+    <t>Agregar, modificar y ver registros</t>
+  </si>
+  <si>
+    <t>Agregar nombres comunes a cada registro.</t>
+  </si>
+  <si>
+    <t>• Dependiendo del rol, el usuario tendrá o no tendrá algunos permisos para administrar el sistema.
+• La mayoría de mantenimientos serán manejados por medio de modales.</t>
+  </si>
+  <si>
+    <t>• Los roles serán separados por medio de tabs de forma que facilite la visualización de todos.</t>
+  </si>
+  <si>
+    <t>Agregar y modificar atributos taxonómicos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario administrador crear listas de taxonomías y a su vez darles mantenimiento.</t>
+  </si>
+  <si>
+    <t>Área de busqueda del público.</t>
+  </si>
+  <si>
+    <t>El sistema debe contar con un área de busqueda hacia el público el cual ellos puedan ver todos los registros del sistema.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario iniciar sesión ingresando el nombre de usuario y contraseña en el sistema de logueo.</t>
+  </si>
+  <si>
+    <t>Validaciones de inicio de sesión.</t>
+  </si>
+  <si>
+    <t>Validar registro de usuario.</t>
+  </si>
+  <si>
+    <t>Registro de usuario público.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al administrador asignar una cuenta con un rol a un nuevo administrador o ayudante.</t>
+  </si>
+  <si>
+    <t>• Será manejado desde el área de administración.
+• Se generará una contraseña aleatoria el cual una vez el usuario ingresado, podrá cambiarla por una propia.</t>
+  </si>
+  <si>
+    <t>• Ser admin general o común.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser capaz de modificar el menú de acuerdo al rol con el que se inicie sesión.</t>
+  </si>
+  <si>
+    <t>• El rol de admín tendrá un acceso directo al dashboard administrativo.
+• El rol de ayudante irá al mismo sitio sin embargo no tendrá todas las opciones del admin.
+• El rol de usuario común tendrá una lista pequeña de opciones administrativas personales.</t>
+  </si>
+  <si>
+    <t>El sistema debe tener caracteristicas de validaciones de seguridad que no permita ciertas practicas erroneas al momento de registrar una cuenta.</t>
+  </si>
+  <si>
+    <t>• No se podrá registrar dos veces el mismo correo ni el mismo usuario.
+• Tendrá que repetir la contraseña para asegurar que se haya escrito correctamente la primera vez.
+• Debe llenar todos los tados, de lo contrario no le dejará continuar con el registro.</t>
+  </si>
+  <si>
+    <t>El sistema debe recuperar los datos de la base de datos para que el usuario pueda iniciar sesión.</t>
+  </si>
+  <si>
+    <t>• El sistema desencriptará el campo de la contraseña para asegurar que sea correcta y posteriormente la encriptará nuevamente.
+• El sistema se asegurará de que el correo concuerde con la contraseña.</t>
+  </si>
+  <si>
+    <t>Editar nombres comunes a cada registro.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir al usuario administrador asociar una lista de nombres comunes a cada registro del sistema.</t>
+  </si>
+  <si>
+    <t>• La opción se encontrará junto en la misma fila del registro dentro de la tabla de datos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir modificar la lista de nombres comunes de cada registro.</t>
+  </si>
+  <si>
+    <t>• La opcion se encotnrará dentro del modal de agregar un registro nuevo.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir seleccionar uno o varios registros para proceder a distintas opciones administrativas.</t>
+  </si>
+  <si>
+    <t>• Para ello se utilizará un checkbox en cada fila del registro.</t>
+  </si>
+  <si>
+    <t>• De la misma forma también se podrá eliminar un registro de la lista de favoritos.</t>
+  </si>
+  <si>
+    <t>• Req - 021.</t>
+  </si>
+  <si>
+    <t>• Existirá una sección exclusiva de mantenimientos taxonómicos.</t>
+  </si>
+  <si>
+    <t>• El sistema desplegará distintos datos como cantidad de plantas registradas, etc.</t>
+  </si>
+  <si>
+    <t>El sistema tendrá en la pagina principal del dashboard una tabla estilo agenda con los datos mas comunes de los administradores y ayudantes registrados.</t>
+  </si>
+  <si>
+    <t>El sistema deberá desplegar todos los usuarios registrados tanto administradores como usuarios comunes.</t>
+  </si>
+  <si>
+    <t>El sistema deberá reconocer el rol con el que se inicie sesión de forma que despliegue distintas opciones dependiendo del rol.</t>
+  </si>
+  <si>
+    <t>• Las validadiones se harán directamente con PHP de forma que sea practicamente imposible de hackear ya que es un lenguaje que solamente se lee desde el sistema operativo.</t>
+  </si>
+  <si>
+    <t>El sistema deberá rechasar un ingreso a las URL exclusivas de administración si no se tiene el rol indicado.</t>
+  </si>
+  <si>
+    <t>• El sistema validará el rol y desviará al index si no tiene permiso de ingresar.</t>
+  </si>
+  <si>
+    <t>• Estos tendrán filtros para facilitar las busquedas.</t>
+  </si>
+  <si>
+    <t>Modificar la contraseña</t>
+  </si>
+  <si>
+    <t>El sistema deberá permitirle al usuario modificar la contraseña en caso de que desee actualizarla.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,6 +608,14 @@
       <b/>
       <sz val="48"/>
       <color theme="3" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -657,7 +804,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -707,38 +854,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -755,107 +881,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-4.9989318521683403E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <font>
         <b/>
@@ -890,6 +942,26 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color theme="9" tint="-0.499984740745262"/>
@@ -904,6 +976,162 @@
           <color theme="0" tint="-4.9989318521683403E-2"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF800000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-4.9989318521683403E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="21" formatCode="dd\-mmm"/>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border>
@@ -1010,21 +1238,21 @@
     </dxf>
   </dxfs>
   <tableStyles count="3" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Estilo de tabla 1" pivot="0" count="1">
-      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
+    <tableStyle name="Estilo de tabla 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="firstColumnStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Estilo de tabla 2" pivot="0" count="1">
-      <tableStyleElement type="firstColumn" dxfId="28"/>
+    <tableStyle name="Estilo de tabla 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="firstColumn" dxfId="35"/>
     </tableStyle>
-    <tableStyle name="Propio" pivot="0" count="8">
-      <tableStyleElement type="wholeTable" dxfId="27"/>
-      <tableStyleElement type="headerRow" dxfId="26"/>
-      <tableStyleElement type="totalRow" dxfId="25"/>
-      <tableStyleElement type="firstColumn" dxfId="24"/>
-      <tableStyleElement type="lastColumn" dxfId="23"/>
-      <tableStyleElement type="firstRowStripe" dxfId="22"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="21"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="20"/>
+    <tableStyle name="Propio" pivot="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="wholeTable" dxfId="34"/>
+      <tableStyleElement type="headerRow" dxfId="33"/>
+      <tableStyleElement type="totalRow" dxfId="32"/>
+      <tableStyleElement type="firstColumn" dxfId="31"/>
+      <tableStyleElement type="lastColumn" dxfId="30"/>
+      <tableStyleElement type="firstRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1046,37 +1274,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A4:H36" insertRowShift="1" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A4:H36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A4:H51" insertRowShift="1" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="A4:H51" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Código" totalsRowLabel="Total" dataDxfId="14" totalsRowDxfId="13"/>
-    <tableColumn id="2" name="Nombre" dataDxfId="12" totalsRowDxfId="11"/>
-    <tableColumn id="3" name="Versión" dataDxfId="10" totalsRowDxfId="9"/>
-    <tableColumn id="4" name="Dependencias" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Descripción" dataDxfId="6"/>
-    <tableColumn id="7" name="Prioridad" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="8" name="Estado" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="9" name="Comentarios" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Código" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Nombre" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Versión" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Dependencias" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Descripción" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Prioridad" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Estado" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comentarios" totalsRowFunction="count" dataDxfId="11" totalsRowDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="Propio" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="B2:B5" totalsRowShown="0">
-  <autoFilter ref="B2:B5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabla2" displayName="Tabla2" ref="B2:B5" totalsRowShown="0">
+  <autoFilter ref="B2:B5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Prioridad"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Prioridad"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabla3" displayName="Tabla3" ref="D2:D5" totalsRowShown="0">
-  <autoFilter ref="D2:D5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabla3" displayName="Tabla3" ref="D2:D5" totalsRowShown="0">
+  <autoFilter ref="D2:D5" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Estado"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Estado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1378,11 +1606,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,26 +1626,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="A1" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
     </row>
     <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,154 +1674,156 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="C5" s="7">
         <v>0.1</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
+      <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
+      <c r="B6" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C6" s="7">
         <v>0.1</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>52</v>
-      </c>
+      <c r="D6" s="14"/>
       <c r="E6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>16</v>
+      <c r="B7" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="C7" s="7">
         <v>0.1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>48</v>
+      </c>
       <c r="E8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>17</v>
+      <c r="B9" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C9" s="7">
         <v>0.1</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="31" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="8"/>
+        <v>40</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7">
         <v>0.1</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -1601,675 +1831,1065 @@
         <v>7</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>0.1</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C12" s="7">
         <v>0.1</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" s="7">
         <v>0.1</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C14" s="7">
         <v>0.1</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7">
         <v>0.1</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7">
         <v>0.1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="C17" s="7">
         <v>0.1</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>15</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="22">
+        <v>14</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7">
         <v>0.1</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
+        <v>27</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="H18" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="9" t="s">
+      <c r="B20" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="G20" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>57</v>
+      <c r="B21" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C21" s="7">
         <v>0.1</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>66</v>
+      <c r="D21" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>21</v>
-      </c>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C24" s="7">
         <v>0.1</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>70</v>
-      </c>
+      <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B26" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>24</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="18">
+      <c r="B27" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="7">
         <v>0.1</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>47</v>
+        <v>155</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>24</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>25</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D28" s="14" t="s">
+      <c r="H29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    </row>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>27</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>87</v>
+      <c r="B30" s="6" t="s">
+        <v>52</v>
       </c>
       <c r="C30" s="7">
         <v>0.1</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="2"/>
       <c r="E30" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>28</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G32" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>28</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="I31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="H32" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D32" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>30</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>105</v>
+      <c r="B33" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="C33" s="7">
         <v>0.1</v>
       </c>
-      <c r="D33" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>106</v>
+      <c r="D33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="H34" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="D34" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>32</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>109</v>
+      <c r="B35" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="C35" s="7">
         <v>0.1</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="2" t="s">
-        <v>110</v>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G35" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="G35" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>33</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="C36" s="7">
         <v>0.1</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="2" t="s">
-        <v>121</v>
+      <c r="D36" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>113</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G36" s="27" t="s">
+      <c r="G36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>33</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>35</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D39" s="14"/>
+      <c r="E39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>36</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>38</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>39</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D43" s="27"/>
+      <c r="E43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D44" s="27"/>
+      <c r="E44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B48" s="32"/>
+      <c r="H44" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>41</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C45" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D45" s="27"/>
+      <c r="E45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="19"/>
+    </row>
+    <row r="46" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>42</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C46" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>45</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>46</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>47</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G52" s="34"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F5:F36">
-    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="Media">
+  <conditionalFormatting sqref="F46:F51 F5:F44">
+    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="Media">
       <formula>NOT(ISERROR(SEARCH("Media",F5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46:G51 G5:G44">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="Completado">
+      <formula>NOT(ISERROR(SEARCH("Completado",G5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="7" stopIfTrue="1" operator="containsText" text="Pendiente">
+      <formula>NOT(ISERROR(SEARCH("Pendiente",G5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Media">
+      <formula>NOT(ISERROR(SEARCH("Media",F45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Completado">
+      <formula>NOT(ISERROR(SEARCH("Completado",G45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Pendiente">
+      <formula>NOT(ISERROR(SEARCH("Pendiente",G45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2281,7 +2901,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="10" operator="containsText" id="{6EFD8ABF-BD2F-4810-B61A-8A9C9BB82C86}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{6EFD8ABF-BD2F-4810-B61A-8A9C9BB82C86}">
             <xm:f>NOT(ISERROR(SEARCH(Listas!$B$3,F5)))</xm:f>
             <xm:f>Listas!$B$3</xm:f>
             <x14:dxf>
@@ -2300,7 +2920,7 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{4DA5B08C-1049-44D4-B1A6-7F13420A0577}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{4DA5B08C-1049-44D4-B1A6-7F13420A0577}">
             <xm:f>NOT(ISERROR(SEARCH(Listas!$B$5,F5)))</xm:f>
             <xm:f>Listas!$B$5</xm:f>
             <x14:dxf>
@@ -2321,23 +2941,66 @@
               </border>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F5:F36</xm:sqref>
+          <xm:sqref>F46:F51 F5:F44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{FDDF7A9F-1D80-42B2-AFDC-9123BA9723ED}">
+            <xm:f>NOT(ISERROR(SEARCH(Listas!$B$3,F45)))</xm:f>
+            <xm:f>Listas!$B$3</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF800000"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+              <border>
+                <bottom style="thin">
+                  <color theme="0" tint="-4.9989318521683403E-2"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="containsText" priority="4" operator="containsText" id="{5C88B425-69F2-4E2D-A57E-3E5376560B21}">
+            <xm:f>NOT(ISERROR(SEARCH(Listas!$B$5,F45)))</xm:f>
+            <xm:f>Listas!$B$5</xm:f>
+            <x14:dxf>
+              <font>
+                <b/>
+                <i val="0"/>
+                <color theme="7" tint="-0.499984740745262"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor theme="7" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+              <border>
+                <bottom style="thin">
+                  <color theme="0" tint="-4.9989318521683403E-2"/>
+                </bottom>
+              </border>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>F45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Listas!$B$3:$B$5</xm:f>
           </x14:formula1>
-          <xm:sqref>F5:F36</xm:sqref>
+          <xm:sqref>F5:F51</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Listas!$D$3:$D$5</xm:f>
           </x14:formula1>
-          <xm:sqref>G5:G36</xm:sqref>
+          <xm:sqref>G5:G51</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2346,7 +3009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2376,7 +3039,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2384,7 +3047,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
